--- a/data-raw/excel-spreadsheets/table_index.xlsx
+++ b/data-raw/excel-spreadsheets/table_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Back up\UPWORK\Emil Larsen\job\9th May 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalle\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E25A6-2565-4B7B-A1D1-5FF812A873DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661186D6-7225-410A-967B-7ED19D9E77F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2405" windowWidth="19399" windowHeight="6724" xr2:uid="{B9AED59F-100B-42DA-A136-C4B80CF95DC9}"/>
+    <workbookView xWindow="6870" yWindow="3140" windowWidth="28800" windowHeight="15460" xr2:uid="{B9AED59F-100B-42DA-A136-C4B80CF95DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="1 to 227" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="456">
   <si>
     <t>Table</t>
   </si>
@@ -435,9 +438,6 @@
     <t>Observed Condition Input - EHV Transformer (GM): Condition of Selector &amp; Diverter Contacts</t>
   </si>
   <si>
-    <t>oci_ehv_tf_cond_select_divrter</t>
-  </si>
-  <si>
     <t>Observed Condition Input - EHV Transformer (GM): Condition of Selector &amp; Diverter Braids</t>
   </si>
   <si>
@@ -1396,6 +1396,12 @@
   </si>
   <si>
     <t>size_enviromental_factor</t>
+  </si>
+  <si>
+    <t>oci_ehv_tf_cond_select_div_cts</t>
+  </si>
+  <si>
+    <t>oci_ehv_tf_cond_select_div_brd</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1783,20 +1789,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB84982-9A2A-4003-89F2-879C11567605}">
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1807,21 +1813,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D20" si="0">LEN(C2)</f>
@@ -1832,15 +1838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
@@ -1851,15 +1857,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
@@ -1870,15 +1876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
@@ -1889,15 +1895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
@@ -1908,15 +1914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
@@ -1927,15 +1933,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
@@ -1946,15 +1952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
@@ -1965,15 +1971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
@@ -1984,15 +1990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
@@ -2003,15 +2009,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
@@ -2022,15 +2028,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" t="s">
         <v>437</v>
-      </c>
-      <c r="C13" t="s">
-        <v>438</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
@@ -2041,15 +2047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" t="s">
         <v>439</v>
-      </c>
-      <c r="C14" t="s">
-        <v>440</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
@@ -2060,15 +2066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
@@ -2079,15 +2085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
@@ -2098,15 +2104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" t="s">
         <v>445</v>
-      </c>
-      <c r="C17" t="s">
-        <v>446</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
@@ -2117,15 +2123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" t="s">
         <v>447</v>
-      </c>
-      <c r="C18" t="s">
-        <v>448</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
@@ -2136,15 +2142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
@@ -2155,15 +2161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
@@ -2174,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>102</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" ref="D69:D100" si="6">LEN(C69)</f>
+        <f t="shared" ref="D69:D86" si="6">LEN(C69)</f>
         <v>26</v>
       </c>
       <c r="E69" s="4">
@@ -3105,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>133</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>134</v>
+        <v>454</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="6"/>
@@ -3409,15 +3415,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>134</v>
+        <v>455</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="6"/>
@@ -3428,15 +3434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ref="D87:D150" si="8">LEN(C87)</f>
@@ -3447,16 +3453,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D88" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3466,16 +3472,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D89" s="2">
         <f t="shared" si="8"/>
         <v>26</v>
@@ -3485,16 +3491,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D90" s="2">
         <f t="shared" si="8"/>
         <v>23</v>
@@ -3504,16 +3510,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D91" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -3523,16 +3529,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D92" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3542,16 +3548,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D93" s="2">
         <f t="shared" si="8"/>
         <v>21</v>
@@ -3561,16 +3567,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D94" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3580,16 +3586,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D95" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3599,15 +3605,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" si="8"/>
@@ -3618,16 +3624,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D97" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3637,16 +3643,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D98" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -3656,16 +3662,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D99" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -3675,16 +3681,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D100" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -3694,16 +3700,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D101" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3713,16 +3719,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D102" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -3732,15 +3738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" si="8"/>
@@ -3751,16 +3757,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D104" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -3770,16 +3776,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D105" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3789,16 +3795,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D106" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -3808,16 +3814,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D107" s="2">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -3827,16 +3833,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D108" s="2">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -3846,16 +3852,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D109" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -3865,16 +3871,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D110" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -3884,16 +3890,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="D111" s="2">
         <f t="shared" si="8"/>
         <v>22</v>
@@ -3903,16 +3909,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D112" s="2">
         <f t="shared" si="8"/>
         <v>23</v>
@@ -3922,16 +3928,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D113" s="2">
         <f t="shared" si="8"/>
         <v>18</v>
@@ -3941,16 +3947,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="D114" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -3960,16 +3966,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D115" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -3979,16 +3985,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D116" s="2">
         <f t="shared" si="8"/>
         <v>26</v>
@@ -3998,16 +4004,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="D117" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -4017,16 +4023,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="D118" s="2">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -4036,16 +4042,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="D119" s="2">
         <f t="shared" si="8"/>
         <v>20</v>
@@ -4055,16 +4061,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D120" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -4074,16 +4080,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D121" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -4093,16 +4099,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D122" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -4112,16 +4118,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D123" s="2">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -4131,16 +4137,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="D124" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -4150,16 +4156,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="D125" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -4169,16 +4175,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="D126" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -4188,16 +4194,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="D127" s="2">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -4207,16 +4213,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="D128" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -4226,16 +4232,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D129" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -4245,16 +4251,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="D130" s="2">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -4264,16 +4270,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D131" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -4283,16 +4289,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D132" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -4302,16 +4308,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D133" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -4321,16 +4327,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="D134" s="2">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -4340,16 +4346,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="D135" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -4359,16 +4365,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D136" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -4378,16 +4384,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D137" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -4397,16 +4403,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D138" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -4416,16 +4422,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="D139" s="2">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -4435,16 +4441,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D140" s="2">
         <f t="shared" si="8"/>
         <v>26</v>
@@ -4454,16 +4460,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="D141" s="2">
         <f t="shared" si="8"/>
         <v>22</v>
@@ -4473,16 +4479,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D142" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -4492,16 +4498,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="D143" s="2">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -4511,16 +4517,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D144" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -4530,16 +4536,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="D145" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -4549,16 +4555,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="D146" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -4568,16 +4574,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="D147" s="2">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -4587,16 +4593,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="D148" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -4606,15 +4612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D149" s="2">
         <f t="shared" si="8"/>
@@ -4625,16 +4631,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D150" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -4644,15 +4650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D151" s="2">
         <f t="shared" ref="D151:D214" si="10">LEN(C151)</f>
@@ -4663,15 +4669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" si="10"/>
@@ -4682,15 +4688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D153" s="2">
         <f t="shared" si="10"/>
@@ -4701,15 +4707,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D154" s="2">
         <f t="shared" si="10"/>
@@ -4720,15 +4726,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D155" s="2">
         <f t="shared" si="10"/>
@@ -4739,15 +4745,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D156" s="2">
         <f t="shared" si="10"/>
@@ -4758,15 +4764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D157" s="2">
         <f t="shared" si="10"/>
@@ -4777,15 +4783,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="D158" s="2">
         <f t="shared" si="10"/>
@@ -4796,15 +4802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D159" s="2">
         <f t="shared" si="10"/>
@@ -4815,15 +4821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D160" s="2">
         <f t="shared" si="10"/>
@@ -4834,15 +4840,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D161" s="2">
         <f t="shared" si="10"/>
@@ -4853,15 +4859,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" si="10"/>
@@ -4872,15 +4878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D163" s="2">
         <f t="shared" si="10"/>
@@ -4891,15 +4897,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D164" s="2">
         <f t="shared" si="10"/>
@@ -4910,15 +4916,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D165" s="2">
         <f t="shared" si="10"/>
@@ -4929,15 +4935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="D166" s="2">
         <f t="shared" si="10"/>
@@ -4948,15 +4954,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D167" s="2">
         <f t="shared" si="10"/>
@@ -4967,15 +4973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D168" s="2">
         <f t="shared" si="10"/>
@@ -4986,15 +4992,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="D169" s="2">
         <f t="shared" si="10"/>
@@ -5005,15 +5011,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D170" s="2">
         <f t="shared" si="10"/>
@@ -5024,15 +5030,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D171" s="2">
         <f t="shared" si="10"/>
@@ -5043,15 +5049,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D172" s="2">
         <f t="shared" si="10"/>
@@ -5062,15 +5068,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D173" s="2">
         <f t="shared" si="10"/>
@@ -5081,27 +5087,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E174" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D175" s="2">
         <f t="shared" si="10"/>
@@ -5112,27 +5118,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E176" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D177" s="2">
         <f t="shared" si="10"/>
@@ -5143,15 +5149,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D178" s="2">
         <f t="shared" si="10"/>
@@ -5162,15 +5168,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D179" s="2">
         <f t="shared" si="10"/>
@@ -5181,15 +5187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="D180" s="2">
         <f t="shared" si="10"/>
@@ -5200,27 +5206,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E181" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D182" s="2">
         <f t="shared" si="10"/>
@@ -5231,27 +5237,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E183" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D184" s="2">
         <f t="shared" si="10"/>
@@ -5262,15 +5268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D185" s="2">
         <f t="shared" si="10"/>
@@ -5281,15 +5287,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D186" s="2">
         <f t="shared" si="10"/>
@@ -5300,15 +5306,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="D187" s="2">
         <f t="shared" si="10"/>
@@ -5319,15 +5325,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D188" s="2">
         <f t="shared" si="10"/>
@@ -5338,15 +5344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D189" s="2">
         <f t="shared" si="10"/>
@@ -5357,15 +5363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="D190" s="2">
         <f t="shared" si="10"/>
@@ -5376,15 +5382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D191" s="2">
         <f t="shared" si="10"/>
@@ -5395,15 +5401,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>189</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D192" s="2">
         <f t="shared" si="10"/>
@@ -5414,15 +5420,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>190</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="D193" s="2">
         <f t="shared" si="10"/>
@@ -5433,15 +5439,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D194" s="2">
         <f t="shared" si="10"/>
@@ -5452,15 +5458,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="D195" s="2">
         <f t="shared" si="10"/>
@@ -5471,15 +5477,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D196" s="2">
         <f t="shared" si="10"/>
@@ -5490,15 +5496,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="D197" s="2">
         <f t="shared" si="10"/>
@@ -5509,15 +5515,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="D198" s="2">
         <f t="shared" si="10"/>
@@ -5528,15 +5534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="D199" s="2">
         <f t="shared" si="10"/>
@@ -5547,15 +5553,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D200" s="2">
         <f t="shared" si="10"/>
@@ -5566,15 +5572,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="D201" s="2">
         <f t="shared" si="10"/>
@@ -5585,15 +5591,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D202" s="2">
         <f t="shared" si="10"/>
@@ -5604,15 +5610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="D203" s="2">
         <f t="shared" si="10"/>
@@ -5623,15 +5629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>201</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="D204" s="2">
         <f t="shared" si="10"/>
@@ -5642,15 +5648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>202</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D205" s="2">
         <f t="shared" si="10"/>
@@ -5661,15 +5667,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D206" s="2">
         <f t="shared" si="10"/>
@@ -5680,15 +5686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>204</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="D207" s="2">
         <f t="shared" si="10"/>
@@ -5699,15 +5705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>205</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D208" s="2">
         <f t="shared" si="10"/>
@@ -5718,15 +5724,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>206</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D209" s="2">
         <f t="shared" si="10"/>
@@ -5737,15 +5743,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>207</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D210" s="2">
         <f t="shared" si="10"/>
@@ -5756,15 +5762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D211" s="2">
         <f t="shared" si="10"/>
@@ -5775,15 +5781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>209</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="10"/>
@@ -5794,15 +5800,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="10"/>
@@ -5813,15 +5819,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>211</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="10"/>
@@ -5832,15 +5838,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>212</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="D215" s="2">
         <f t="shared" ref="D215" si="12">LEN(C215)</f>
@@ -5851,15 +5857,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D216" s="2">
         <f t="shared" ref="D216:D230" si="13">LEN(C216)</f>
@@ -5870,15 +5876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>214</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D217" s="2">
         <f t="shared" si="13"/>
@@ -5889,15 +5895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D218" s="2">
         <f t="shared" si="13"/>
@@ -5908,15 +5914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D219" s="2">
         <f t="shared" si="13"/>
@@ -5927,15 +5933,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>217</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="D220" s="2">
         <f t="shared" si="13"/>
@@ -5946,15 +5952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>218</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D221" s="2">
         <f t="shared" si="13"/>
@@ -5965,15 +5971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D222" s="2">
         <f t="shared" si="13"/>
@@ -5984,15 +5990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>220</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="D223" s="2">
         <f t="shared" si="13"/>
@@ -6003,15 +6009,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D224" s="2">
         <f t="shared" si="13"/>
@@ -6022,15 +6028,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>222</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="D225" s="2">
         <f t="shared" si="13"/>
@@ -6041,15 +6047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>223</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D226" s="2">
         <f t="shared" si="13"/>
@@ -6060,15 +6066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>224</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D227" s="2">
         <f t="shared" si="13"/>
@@ -6079,15 +6085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>225</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D228" s="2">
         <f t="shared" si="13"/>
@@ -6098,15 +6104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>226</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="D229" s="2">
         <f t="shared" si="13"/>
@@ -6117,15 +6123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>227</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D230" s="2">
         <f t="shared" si="13"/>

--- a/data-raw/excel-spreadsheets/table_index.xlsx
+++ b/data-raw/excel-spreadsheets/table_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5656F6CA-0622-4671-A5BD-25339609D78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4176B75-E748-4D2B-B523-165EDACA623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7580" yWindow="-21340" windowWidth="15980" windowHeight="14860" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{97600937-3096-46D4-A200-AC41CD055E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="1 to 241" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="493">
   <si>
     <t>Table</t>
   </si>
@@ -676,9 +676,6 @@
     <t>Observed Condition Input - 132kV Transformer (GM): Condition of Selector &amp; Diverter Contacts</t>
   </si>
   <si>
-    <t>oci_132kv_tf_cond_select_divrt</t>
-  </si>
-  <si>
     <t>Observed Condition Input - 132kV Transformer (GM): Condition of Selector &amp; Diverter Braids</t>
   </si>
   <si>
@@ -1511,6 +1508,12 @@
   </si>
   <si>
     <t>oil_test_collar_calib</t>
+  </si>
+  <si>
+    <t>oci_132kv_tf_cond_select_div_c</t>
+  </si>
+  <si>
+    <t>oci_132kv_tf_cond_select_div_b</t>
   </si>
 </sst>
 </file>
@@ -1881,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569376E0-8FA5-43EA-A466-707E9AF7BBBF}">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3856,7 +3859,7 @@
         <v>212</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>213</v>
+        <v>491</v>
       </c>
       <c r="D104">
         <f t="shared" si="2"/>
@@ -3872,10 +3875,10 @@
         <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>213</v>
+        <v>492</v>
       </c>
       <c r="D105">
         <f t="shared" si="2"/>
@@ -3891,10 +3894,10 @@
         <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D106">
         <f t="shared" si="2"/>
@@ -3910,10 +3913,10 @@
         <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D107">
         <f t="shared" si="2"/>
@@ -3929,10 +3932,10 @@
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D108">
         <f t="shared" si="2"/>
@@ -3948,10 +3951,10 @@
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D109">
         <f t="shared" si="2"/>
@@ -3967,10 +3970,10 @@
         <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D110">
         <f t="shared" si="2"/>
@@ -3986,10 +3989,10 @@
         <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="D111">
         <f t="shared" si="2"/>
@@ -4005,10 +4008,10 @@
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D112">
         <f t="shared" si="2"/>
@@ -4024,10 +4027,10 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D113">
         <f t="shared" si="2"/>
@@ -4043,10 +4046,10 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D114">
         <f t="shared" si="2"/>
@@ -4062,10 +4065,10 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D115">
         <f t="shared" si="2"/>
@@ -4081,10 +4084,10 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D116">
         <f t="shared" si="2"/>
@@ -4100,10 +4103,10 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D117">
         <f t="shared" si="2"/>
@@ -4119,10 +4122,10 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D118">
         <f t="shared" si="2"/>
@@ -4138,10 +4141,10 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D119">
         <f t="shared" si="2"/>
@@ -4157,10 +4160,10 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D120">
         <f t="shared" si="2"/>
@@ -4176,10 +4179,10 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D121">
         <f t="shared" si="2"/>
@@ -4195,10 +4198,10 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D122">
         <f t="shared" si="2"/>
@@ -4214,10 +4217,10 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D123">
         <f t="shared" si="2"/>
@@ -4233,10 +4236,10 @@
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D124">
         <f t="shared" si="2"/>
@@ -4252,10 +4255,10 @@
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D125">
         <f t="shared" si="2"/>
@@ -4271,10 +4274,10 @@
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D126">
         <f t="shared" si="2"/>
@@ -4290,10 +4293,10 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="D127">
         <f t="shared" si="2"/>
@@ -4309,10 +4312,10 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D128">
         <f t="shared" si="2"/>
@@ -4328,10 +4331,10 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D129">
         <f t="shared" si="2"/>
@@ -4347,10 +4350,10 @@
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D130">
         <f t="shared" si="2"/>
@@ -4366,10 +4369,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" si="4">LEN(C131)</f>
@@ -4385,10 +4388,10 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D132">
         <f t="shared" si="4"/>
@@ -4404,10 +4407,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D133">
         <f t="shared" si="4"/>
@@ -4423,10 +4426,10 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D134">
         <f t="shared" si="4"/>
@@ -4442,10 +4445,10 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D135">
         <f t="shared" si="4"/>
@@ -4461,10 +4464,10 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D136">
         <f t="shared" si="4"/>
@@ -4480,10 +4483,10 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="D137">
         <f t="shared" si="4"/>
@@ -4499,10 +4502,10 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D138">
         <f t="shared" si="4"/>
@@ -4518,10 +4521,10 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="D139">
         <f t="shared" si="4"/>
@@ -4537,10 +4540,10 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D140">
         <f t="shared" si="4"/>
@@ -4556,10 +4559,10 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D141">
         <f t="shared" si="4"/>
@@ -4575,10 +4578,10 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D142">
         <f t="shared" si="4"/>
@@ -4594,10 +4597,10 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D143">
         <f t="shared" si="4"/>
@@ -4613,10 +4616,10 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="D144">
         <f t="shared" si="4"/>
@@ -4632,10 +4635,10 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="D145">
         <f t="shared" si="4"/>
@@ -4651,10 +4654,10 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D146">
         <f t="shared" si="4"/>
@@ -4670,10 +4673,10 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D147">
         <f t="shared" si="4"/>
@@ -4689,10 +4692,10 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="D148">
         <f t="shared" si="4"/>
@@ -4708,10 +4711,10 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D149">
         <f t="shared" si="4"/>
@@ -4727,10 +4730,10 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D150">
         <f t="shared" si="4"/>
@@ -4746,10 +4749,10 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="D151">
         <f t="shared" si="4"/>
@@ -4765,10 +4768,10 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="D152">
         <f t="shared" si="4"/>
@@ -4784,10 +4787,10 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D153">
         <f t="shared" si="4"/>
@@ -4803,10 +4806,10 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D154">
         <f t="shared" si="4"/>
@@ -4822,10 +4825,10 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D155">
         <f t="shared" si="4"/>
@@ -4841,10 +4844,10 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D156">
         <f t="shared" si="4"/>
@@ -4860,10 +4863,10 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D157">
         <f t="shared" si="4"/>
@@ -4879,10 +4882,10 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D158">
         <f t="shared" si="4"/>
@@ -4898,10 +4901,10 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="D159">
         <f t="shared" si="4"/>
@@ -4917,10 +4920,10 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D160">
         <f t="shared" si="4"/>
@@ -4936,10 +4939,10 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D161">
         <f t="shared" si="4"/>
@@ -4955,10 +4958,10 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="D162">
         <f t="shared" si="4"/>
@@ -4974,10 +4977,10 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D163">
         <f t="shared" si="4"/>
@@ -4993,10 +4996,10 @@
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D164">
         <f t="shared" si="4"/>
@@ -5012,10 +5015,10 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D165">
         <f t="shared" si="4"/>
@@ -5031,10 +5034,10 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D166">
         <f t="shared" si="4"/>
@@ -5050,10 +5053,10 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D167">
         <f t="shared" si="4"/>
@@ -5069,10 +5072,10 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D168">
         <f t="shared" si="4"/>
@@ -5088,10 +5091,10 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D169">
         <f t="shared" si="4"/>
@@ -5107,10 +5110,10 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D170">
         <f t="shared" si="4"/>
@@ -5126,10 +5129,10 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="D171">
         <f t="shared" si="4"/>
@@ -5145,10 +5148,10 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="D172">
         <f t="shared" si="4"/>
@@ -5164,10 +5167,10 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D173">
         <f t="shared" si="4"/>
@@ -5183,10 +5186,10 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D174">
         <f t="shared" si="4"/>
@@ -5202,10 +5205,10 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="D175">
         <f t="shared" si="4"/>
@@ -5221,10 +5224,10 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="D176">
         <f t="shared" si="4"/>
@@ -5240,10 +5243,10 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="D177">
         <f t="shared" si="4"/>
@@ -5259,10 +5262,10 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="D178">
         <f t="shared" si="4"/>
@@ -5278,10 +5281,10 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="D179">
         <f t="shared" si="4"/>
@@ -5297,10 +5300,10 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D180">
         <f t="shared" si="4"/>
@@ -5316,10 +5319,10 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D181">
         <f t="shared" si="4"/>
@@ -5335,10 +5338,10 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D182">
         <f t="shared" si="4"/>
@@ -5354,10 +5357,10 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="D183">
         <f t="shared" si="4"/>
@@ -5373,10 +5376,10 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D184">
         <f t="shared" si="4"/>
@@ -5392,10 +5395,10 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="D185">
         <f t="shared" si="4"/>
@@ -5411,10 +5414,10 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="D186">
         <f t="shared" si="4"/>
@@ -5430,10 +5433,10 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="D187">
         <f t="shared" si="4"/>
@@ -5449,10 +5452,10 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="D188">
         <f t="shared" si="4"/>
@@ -5468,10 +5471,10 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="D189">
         <f t="shared" si="4"/>
@@ -5487,10 +5490,10 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="D190">
         <f t="shared" si="4"/>
@@ -5506,10 +5509,10 @@
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D191">
         <f t="shared" si="4"/>
@@ -5525,10 +5528,10 @@
         <v>189</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D192">
         <f t="shared" si="4"/>
@@ -5544,10 +5547,10 @@
         <v>190</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="D193">
         <f t="shared" si="4"/>
@@ -5563,10 +5566,10 @@
         <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="D194">
         <f t="shared" si="4"/>
@@ -5582,10 +5585,10 @@
         <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D244" si="6">LEN(C195)</f>
@@ -5601,10 +5604,10 @@
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D196">
         <f t="shared" si="6"/>
@@ -5620,10 +5623,10 @@
         <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D197">
         <f t="shared" si="6"/>
@@ -5639,10 +5642,10 @@
         <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D198">
         <f t="shared" si="6"/>
@@ -5658,10 +5661,10 @@
         <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D199">
         <f t="shared" si="6"/>
@@ -5677,10 +5680,10 @@
         <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="D200">
         <f t="shared" si="6"/>
@@ -5696,10 +5699,10 @@
         <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D201">
         <f t="shared" si="6"/>
@@ -5715,10 +5718,10 @@
         <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D202">
         <f t="shared" si="6"/>
@@ -5734,10 +5737,10 @@
         <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D203">
         <f t="shared" si="6"/>
@@ -5753,10 +5756,10 @@
         <v>201</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D204">
         <f t="shared" si="6"/>
@@ -5772,10 +5775,10 @@
         <v>202</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="D205">
         <f t="shared" si="6"/>
@@ -5791,10 +5794,10 @@
         <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="D206">
         <f t="shared" si="6"/>
@@ -5810,10 +5813,10 @@
         <v>204</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D207">
         <f t="shared" si="6"/>
@@ -5829,10 +5832,10 @@
         <v>205</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="D208">
         <f t="shared" si="6"/>
@@ -5848,10 +5851,10 @@
         <v>206</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="D209">
         <f t="shared" si="6"/>
@@ -5867,10 +5870,10 @@
         <v>207</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="D210">
         <f t="shared" si="6"/>
@@ -5886,10 +5889,10 @@
         <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D211">
         <f t="shared" si="6"/>
@@ -5905,10 +5908,10 @@
         <v>209</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="D212">
         <f t="shared" si="6"/>
@@ -5924,10 +5927,10 @@
         <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D213">
         <f t="shared" si="6"/>
@@ -5943,10 +5946,10 @@
         <v>211</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D214">
         <f t="shared" si="6"/>
@@ -5962,10 +5965,10 @@
         <v>212</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="D215">
         <f t="shared" si="6"/>
@@ -5981,10 +5984,10 @@
         <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D216">
         <f t="shared" si="6"/>
@@ -6000,10 +6003,10 @@
         <v>214</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="D217">
         <f t="shared" si="6"/>
@@ -6019,10 +6022,10 @@
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D218">
         <f t="shared" si="6"/>
@@ -6038,10 +6041,10 @@
         <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="D219">
         <f t="shared" si="6"/>
@@ -6057,10 +6060,10 @@
         <v>217</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D220">
         <f t="shared" si="6"/>
@@ -6076,10 +6079,10 @@
         <v>218</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="D221">
         <f t="shared" si="6"/>
@@ -6095,10 +6098,10 @@
         <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="D222">
         <f t="shared" si="6"/>
@@ -6114,10 +6117,10 @@
         <v>220</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="D223">
         <f t="shared" si="6"/>
@@ -6133,10 +6136,10 @@
         <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="D224">
         <f t="shared" si="6"/>
@@ -6152,10 +6155,10 @@
         <v>222</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D225">
         <f t="shared" si="6"/>
@@ -6171,10 +6174,10 @@
         <v>223</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="D226">
         <f t="shared" si="6"/>
@@ -6190,10 +6193,10 @@
         <v>224</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="D227">
         <f t="shared" si="6"/>
@@ -6209,10 +6212,10 @@
         <v>225</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D228">
         <f t="shared" si="6"/>
@@ -6228,10 +6231,10 @@
         <v>226</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="D229">
         <f t="shared" si="6"/>
@@ -6247,10 +6250,10 @@
         <v>227</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="D230">
         <f t="shared" si="6"/>
@@ -6266,10 +6269,10 @@
         <v>228</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="D231">
         <f t="shared" si="6"/>
@@ -6285,10 +6288,10 @@
         <v>229</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="D232">
         <f t="shared" si="6"/>
@@ -6304,10 +6307,10 @@
         <v>230</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D233">
         <f t="shared" si="6"/>
@@ -6323,10 +6326,10 @@
         <v>231</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="D234">
         <f t="shared" si="6"/>
@@ -6342,10 +6345,10 @@
         <v>232</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="D235">
         <f t="shared" si="6"/>
@@ -6361,10 +6364,10 @@
         <v>233</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="D236">
         <f t="shared" si="6"/>
@@ -6380,10 +6383,10 @@
         <v>234</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="D237">
         <f t="shared" si="6"/>
@@ -6399,10 +6402,10 @@
         <v>235</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D238">
         <f t="shared" si="6"/>
@@ -6418,10 +6421,10 @@
         <v>236</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="D239">
         <f t="shared" si="6"/>
@@ -6437,10 +6440,10 @@
         <v>237</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D240">
         <f t="shared" si="6"/>
@@ -6456,10 +6459,10 @@
         <v>238</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D241">
         <f t="shared" si="6"/>
@@ -6475,10 +6478,10 @@
         <v>239</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="D242">
         <f t="shared" si="6"/>
@@ -6494,10 +6497,10 @@
         <v>240</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="D243">
         <f t="shared" si="6"/>
@@ -6513,10 +6516,10 @@
         <v>241</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="D244">
         <f t="shared" si="6"/>
